--- a/artfynd/A 8113-2026 artfynd.xlsx
+++ b/artfynd/A 8113-2026 artfynd.xlsx
@@ -1219,7 +1219,7 @@
         <v>130827874</v>
       </c>
       <c r="B7" t="n">
-        <v>75349</v>
+        <v>75350</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>130827873</v>
       </c>
       <c r="B9" t="n">
-        <v>83208</v>
+        <v>83209</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
